--- a/Configs/GameConfig/Datas/#Misc.xlsx
+++ b/Configs/GameConfig/Datas/#Misc.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>##column#var</t>
   </si>
@@ -41,10 +41,16 @@
     <t>描述</t>
   </si>
   <si>
-    <t>hpRestoreSecond</t>
+    <t>hpMax</t>
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>最大体力</t>
+  </si>
+  <si>
+    <t>hpRestoreSecond</t>
   </si>
   <si>
     <t>体力恢复时间</t>
@@ -1208,13 +1214,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="36.0480769230769" customWidth="1"/>
     <col min="2" max="2" width="10.7307692307692" customWidth="1"/>
@@ -1238,32 +1244,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>300</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>300</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>100</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
